--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4471,7 +4471,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4831,7 +4831,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5073,7 +5073,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5923,7 +5923,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6283,7 +6283,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6525,7 +6525,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7375,7 +7375,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7735,7 +7735,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7977,7 +7977,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8827,7 +8827,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9187,7 +9187,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9429,7 +9429,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10279,7 +10279,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10639,7 +10639,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10881,7 +10881,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -11731,7 +11731,7 @@
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -12091,7 +12091,7 @@
         <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12333,7 +12333,7 @@
         <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12207,7 +12207,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4051,7 +4051,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-year-date</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-year-date</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-year-date</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-year-date</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-year-date</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-ncit-year-date</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4108,7 +4108,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -5560,7 +5560,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -7012,7 +7012,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -8464,7 +8464,7 @@
         <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>93</v>
@@ -9916,7 +9916,7 @@
         <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>93</v>
@@ -11368,7 +11368,7 @@
         <v>92</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>93</v>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12207,7 +12207,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-year-date.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
